--- a/Tools/Apparatus.xlsx
+++ b/Tools/Apparatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\preparatory\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3761CD-6CE3-4597-8BD9-BA23A9ACA4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8DE7E4-A0EA-4714-9CE2-D8B834109BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Classes" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294964254" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="89">
   <si>
     <t>1</t>
   </si>
@@ -149,9 +148,6 @@
     <t xml:space="preserve">يوسف عادل حليم </t>
   </si>
   <si>
-    <t>not found</t>
-  </si>
-  <si>
     <t xml:space="preserve">ميشيل اكرامي حبيب </t>
   </si>
   <si>
@@ -195,6 +191,120 @@
   </si>
   <si>
     <t>ثالثة</t>
+  </si>
+  <si>
+    <t>بافلي اديب سمير</t>
+  </si>
+  <si>
+    <t>اوليفر مجدي سمير</t>
+  </si>
+  <si>
+    <t>مارك روماني القمص دوماديوس</t>
+  </si>
+  <si>
+    <t>ميخائيل جرجس محروس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انطونيوس باسم وليم </t>
+  </si>
+  <si>
+    <t>امير عادل جرجس حنا</t>
+  </si>
+  <si>
+    <t>بيتر ماهر عزمي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بولا زاخر جرجس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سمير سامح سمير </t>
+  </si>
+  <si>
+    <t>كيرلس جرجس عيسى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماريو ماجد مهاود </t>
+  </si>
+  <si>
+    <t>ميخائيل القس اسحق قسطور</t>
+  </si>
+  <si>
+    <t>باترك تيسير ادوار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مارتن مجدي جمال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فيلوباتير عماد كمال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماثيو موسي مكاري </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مارتن ماجد شوقي </t>
+  </si>
+  <si>
+    <t>فادي عماد موسى</t>
+  </si>
+  <si>
+    <t>رضا صبحي ايوب</t>
+  </si>
+  <si>
+    <t>كيرلس صبحي ايوب</t>
+  </si>
+  <si>
+    <t>توماس مرزق يوسف</t>
+  </si>
+  <si>
+    <t>شنودة مرزق يوسف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابانوب إيهاب سعد </t>
+  </si>
+  <si>
+    <t>جاستن مجدي ابراهيم توفيق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جون روماني مسعد </t>
+  </si>
+  <si>
+    <t>مارك منير كامل</t>
+  </si>
+  <si>
+    <t>فادي نصر رمزي</t>
+  </si>
+  <si>
+    <t>بيشوي ايمن عبد الروؤف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مينا مدحت سمير </t>
+  </si>
+  <si>
+    <t xml:space="preserve">يوسف بولا جميل </t>
+  </si>
+  <si>
+    <t>كيرلس هاني فوزي</t>
+  </si>
+  <si>
+    <t>يوسف نشات رزق الله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرانك عصام جرجس </t>
+  </si>
+  <si>
+    <t>جورج نشات جورج</t>
+  </si>
+  <si>
+    <t>يوسف مسامح يوسف</t>
+  </si>
+  <si>
+    <t>كيرلس ناصر اليكسان</t>
+  </si>
+  <si>
+    <t>بيتر فرنسيس منير فرنسيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوفير اسامة حنا </t>
   </si>
 </sst>
 </file>
@@ -401,7 +511,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -415,13 +525,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -436,51 +543,26 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -488,29 +570,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,25 +619,55 @@
     <cellStyle name="Normal_Sheet3" xfId="2" xr:uid="{DCC24432-2790-45D8-894A-FD576ECE15F0}"/>
     <cellStyle name="Normal_حضور المرة اللي فاتت" xfId="3" xr:uid="{378E23F2-5256-480C-8082-4FC46A4C0536}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="35">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -602,249 +733,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FFFF"/>
-          <bgColor rgb="FF00FFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="22"/>
-        </left>
-        <right style="thin">
-          <color indexed="22"/>
-        </right>
-        <top style="thin">
-          <color indexed="22"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="22"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1013,11 +905,269 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="22"/>
+        </left>
+        <right style="thin">
+          <color indexed="22"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="22"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FFFF"/>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1035,25 +1185,28 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{83AABCCE-7110-43ED-B2B0-2A3F5C723F17}" name="Table5" displayName="Table5" ref="A1:D19" totalsRowShown="0">
   <autoFilter ref="A1:D19" xr:uid="{83AABCCE-7110-43ED-B2B0-2A3F5C723F17}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
+    <sortCondition ref="D1:D19"/>
+  </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{66174B3E-A499-45DA-BCFE-AC99D096230F}" name="Column1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{B9037508-EA2D-4E64-A24A-2F068D2C8994}" name="Column2" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{A50D6B20-3816-4D42-872A-7B39EAAD5928}" name="Column3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{A9D2B851-3470-4FD1-91F6-C52C0A90E51C}" name="Column4" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{66174B3E-A499-45DA-BCFE-AC99D096230F}" name="Column1" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{B9037508-EA2D-4E64-A24A-2F068D2C8994}" name="Column2" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{A50D6B20-3816-4D42-872A-7B39EAAD5928}" name="Column3" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{A9D2B851-3470-4FD1-91F6-C52C0A90E51C}" name="Column4" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2B957314-52DA-486F-BA48-56F0E26F9DBA}" name="Table6" displayName="Table6" ref="A1:B44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2B957314-52DA-486F-BA48-56F0E26F9DBA}" name="Table6" displayName="Table6" ref="A1:B44" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="A1:B44" xr:uid="{2B957314-52DA-486F-BA48-56F0E26F9DBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B44">
     <sortCondition ref="B1:B44"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{80BD357F-4997-47E8-9A2D-15E469F48E00}" name="Column1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{B3AB07A4-5004-459E-875A-7B6A666C3A05}" name="Column2" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{80BD357F-4997-47E8-9A2D-15E469F48E00}" name="Column1" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{B3AB07A4-5004-459E-875A-7B6A666C3A05}" name="Column2" dataDxfId="24">
       <calculatedColumnFormula>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1062,17 +1215,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F0B8927B-2390-482D-A584-00F5A93DC390}" name="Table3" displayName="Table3" ref="A1:E38" totalsRowShown="0" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F0B8927B-2390-482D-A584-00F5A93DC390}" name="Table3" displayName="Table3" ref="A1:E38" totalsRowShown="0" tableBorderDxfId="23">
   <autoFilter ref="A1:E38" xr:uid="{F0B8927B-2390-482D-A584-00F5A93DC390}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">
     <sortCondition ref="A1:A38"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4DF55668-EC33-4E7C-97AC-4D6820E82B08}" name="Column1" dataDxfId="22" dataCellStyle="Warning Text"/>
-    <tableColumn id="2" xr3:uid="{D44FC27F-13E7-4E79-85D7-C6E47BEBB20B}" name="Column2" dataDxfId="26" dataCellStyle="Warning Text"/>
-    <tableColumn id="3" xr3:uid="{B06D43D7-BE12-498E-B2DA-5B4A658C87B2}" name="Column3" dataDxfId="25" dataCellStyle="Warning Text"/>
-    <tableColumn id="4" xr3:uid="{94E69240-30FE-4B59-A60F-23A7D2E8AEC6}" name="Column4" dataDxfId="24" dataCellStyle="Warning Text"/>
-    <tableColumn id="5" xr3:uid="{0A990159-6EFB-46B3-8587-B0395D470836}" name="Column5" dataDxfId="23" dataCellStyle="Warning Text"/>
+    <tableColumn id="1" xr3:uid="{4DF55668-EC33-4E7C-97AC-4D6820E82B08}" name="Column1" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{D44FC27F-13E7-4E79-85D7-C6E47BEBB20B}" name="Column2" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{B06D43D7-BE12-498E-B2DA-5B4A658C87B2}" name="Column3" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{94E69240-30FE-4B59-A60F-23A7D2E8AEC6}" name="Column4" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{0A990159-6EFB-46B3-8587-B0395D470836}" name="Column5" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1085,9 +1238,9 @@
     <sortCondition ref="A1:A59"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7A797E0F-F5A5-4FC1-A6DD-107534414846}" name="Column1" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{7A797E0F-F5A5-4FC1-A6DD-107534414846}" name="Column1" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{63C521FF-3451-4BD8-896E-2EBEF0D40FED}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{D1F62480-1B2F-4B22-AA29-DAC2B009F7C7}" name="Column3" dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{D1F62480-1B2F-4B22-AA29-DAC2B009F7C7}" name="Column3" dataDxfId="16">
       <calculatedColumnFormula>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1358,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="89" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,251 +1523,851 @@
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="13" max="13" width="28.21875" customWidth="1"/>
+    <col min="15" max="15" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>243</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>243</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="str">
+        <f>L2&amp;"   "&amp;M2</f>
+        <v xml:space="preserve">243   يوسف عادل حليم </v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>878</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>878</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="str">
+        <f>L3&amp;"   "&amp;M3</f>
+        <v>878   بافلي اديب سمير</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>879</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>879</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="str">
+        <f>L4&amp;"   "&amp;M4</f>
+        <v xml:space="preserve">879   ميشيل اكرامي حبيب </v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>525</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>525</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="str">
+        <f>L5&amp;"   "&amp;M5</f>
+        <v xml:space="preserve">525   مارك سامح ابراهيم </v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>830</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>830</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="str">
+        <f>L6&amp;"   "&amp;M6</f>
+        <v>830   فادي بشرى نادي</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>310</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>310</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="str">
+        <f>L7&amp;"   "&amp;M7</f>
+        <v xml:space="preserve">310   ابانوب عماد جابر </v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>726</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>726</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="str">
+        <f>L8&amp;"   "&amp;M8</f>
+        <v>726   سامح ملاك صابر</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>336</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>336</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="str">
+        <f>L9&amp;"   "&amp;M9</f>
+        <v xml:space="preserve">336   يوحنا فايز ادوارد </v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>128</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>128</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" t="str">
+        <f>L10&amp;"   "&amp;M10</f>
+        <v>128   كارلوس شنودة تادرس</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>718</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>718</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" t="str">
+        <f>L11&amp;"   "&amp;M11</f>
+        <v>718   بيشوي جرجس عيد</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>838</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>838</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" t="str">
+        <f>L12&amp;"   "&amp;M12</f>
+        <v>838   كيرلس عوني رافت</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>740</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>740</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" t="str">
+        <f>L13&amp;"   "&amp;M13</f>
+        <v>740   مينا منير امير</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>435</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>435</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" t="str">
+        <f>L14&amp;"   "&amp;M14</f>
+        <v xml:space="preserve">435   فادي هاني صموئيل </v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
         <v>440</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="D15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>440</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="str">
+        <f>L15&amp;"   "&amp;M15</f>
+        <v xml:space="preserve">440   فيلوباتير عيد اسحق </v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
         <v>225</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="D16" s="7"/>
+      <c r="L16">
+        <v>113</v>
+      </c>
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" t="str">
+        <f>L16&amp;"   "&amp;M16</f>
+        <v>113   اوليفر مجدي سمير</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
         <v>126</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>243</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>511</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>879</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>525</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>830</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>310</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>726</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10" t="s">
+      <c r="D17" s="7"/>
+      <c r="L17">
+        <v>129</v>
+      </c>
+      <c r="M17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" t="str">
+        <f>L17&amp;"   "&amp;M17</f>
+        <v>129   مارك روماني القمص دوماديوس</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>337</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>337</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>336</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="10" t="s">
+      <c r="D18" s="11"/>
+      <c r="L18">
+        <v>133</v>
+      </c>
+      <c r="M18" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" t="str">
+        <f>L18&amp;"   "&amp;M18</f>
+        <v>133   ميخائيل جرجس محروس</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>231</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>231</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>128</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>718</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>838</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>740</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>435</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1</v>
+      <c r="D19" s="11"/>
+      <c r="L19">
+        <v>139</v>
+      </c>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" t="str">
+        <f>L19&amp;"   "&amp;M19</f>
+        <v xml:space="preserve">139   انطونيوس باسم وليم </v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>211</v>
+      </c>
+      <c r="M20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" t="str">
+        <f>L20&amp;"   "&amp;M20</f>
+        <v>211   امير عادل جرجس حنا</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>254</v>
+      </c>
+      <c r="M21" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" t="str">
+        <f>L21&amp;"   "&amp;M21</f>
+        <v>254   بيتر ماهر عزمي</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>317</v>
+      </c>
+      <c r="M22" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" t="str">
+        <f>L22&amp;"   "&amp;M22</f>
+        <v xml:space="preserve">317   بولا زاخر جرجس </v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>325</v>
+      </c>
+      <c r="M23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" t="str">
+        <f>L23&amp;"   "&amp;M23</f>
+        <v xml:space="preserve">325   سمير سامح سمير </v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>329</v>
+      </c>
+      <c r="M24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" t="str">
+        <f>L24&amp;"   "&amp;M24</f>
+        <v>329   كيرلس جرجس عيسى</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <v>334</v>
+      </c>
+      <c r="M25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" t="str">
+        <f>L25&amp;"   "&amp;M25</f>
+        <v xml:space="preserve">334   ماريو ماجد مهاود </v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>338</v>
+      </c>
+      <c r="M26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" t="str">
+        <f>L26&amp;"   "&amp;M26</f>
+        <v>338   ميخائيل القس اسحق قسطور</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>342</v>
+      </c>
+      <c r="M27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O27" t="str">
+        <f>L27&amp;"   "&amp;M27</f>
+        <v>342   باترك تيسير ادوار</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>346</v>
+      </c>
+      <c r="M28" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" t="str">
+        <f>L28&amp;"   "&amp;M28</f>
+        <v xml:space="preserve">346   مارتن مجدي جمال </v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>343</v>
+      </c>
+      <c r="M29" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="O29" t="str">
+        <f>L29&amp;"   "&amp;M29</f>
+        <v>343   بيتر فرنسيس منير فرنسيس</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>438</v>
+      </c>
+      <c r="M30" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" t="str">
+        <f>L30&amp;"   "&amp;M30</f>
+        <v xml:space="preserve">438   فيلوباتير عماد كمال </v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>444</v>
+      </c>
+      <c r="M31" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" t="str">
+        <f>L31&amp;"   "&amp;M31</f>
+        <v xml:space="preserve">444   ماثيو موسي مكاري </v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>445</v>
+      </c>
+      <c r="M32" t="s">
+        <v>67</v>
+      </c>
+      <c r="O32" t="str">
+        <f>L32&amp;"   "&amp;M32</f>
+        <v xml:space="preserve">445   مارتن ماجد شوقي </v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>880</v>
+      </c>
+      <c r="M33" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="O33" t="str">
+        <f>L33&amp;"   "&amp;M33</f>
+        <v xml:space="preserve">880   نوفير اسامة حنا </v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>610</v>
+      </c>
+      <c r="M34" t="s">
+        <v>68</v>
+      </c>
+      <c r="O34" t="str">
+        <f>L34&amp;"   "&amp;M34</f>
+        <v>610   فادي عماد موسى</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>611</v>
+      </c>
+      <c r="M35" t="s">
+        <v>69</v>
+      </c>
+      <c r="O35" t="str">
+        <f>L35&amp;"   "&amp;M35</f>
+        <v>611   رضا صبحي ايوب</v>
+      </c>
+    </row>
+    <row r="36" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>612</v>
+      </c>
+      <c r="M36" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" t="str">
+        <f>L36&amp;"   "&amp;M36</f>
+        <v>612   كيرلس صبحي ايوب</v>
+      </c>
+    </row>
+    <row r="37" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>616</v>
+      </c>
+      <c r="M37" t="s">
+        <v>71</v>
+      </c>
+      <c r="O37" t="str">
+        <f>L37&amp;"   "&amp;M37</f>
+        <v>616   توماس مرزق يوسف</v>
+      </c>
+    </row>
+    <row r="38" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>617</v>
+      </c>
+      <c r="M38" t="s">
+        <v>72</v>
+      </c>
+      <c r="O38" t="str">
+        <f>L38&amp;"   "&amp;M38</f>
+        <v>617   شنودة مرزق يوسف</v>
+      </c>
+    </row>
+    <row r="39" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>710</v>
+      </c>
+      <c r="M39" t="s">
+        <v>73</v>
+      </c>
+      <c r="O39" t="str">
+        <f>L39&amp;"   "&amp;M39</f>
+        <v xml:space="preserve">710   ابانوب إيهاب سعد </v>
+      </c>
+    </row>
+    <row r="40" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>721</v>
+      </c>
+      <c r="M40" t="s">
+        <v>74</v>
+      </c>
+      <c r="O40" t="str">
+        <f>L40&amp;"   "&amp;M40</f>
+        <v>721   جاستن مجدي ابراهيم توفيق</v>
+      </c>
+    </row>
+    <row r="41" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>722</v>
+      </c>
+      <c r="M41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O41" t="str">
+        <f>L41&amp;"   "&amp;M41</f>
+        <v xml:space="preserve">722   جون روماني مسعد </v>
+      </c>
+    </row>
+    <row r="42" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>735</v>
+      </c>
+      <c r="M42" t="s">
+        <v>76</v>
+      </c>
+      <c r="O42" t="str">
+        <f>L42&amp;"   "&amp;M42</f>
+        <v>735   مارك منير كامل</v>
+      </c>
+    </row>
+    <row r="43" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>812</v>
+      </c>
+      <c r="M43" t="s">
+        <v>77</v>
+      </c>
+      <c r="O43" t="str">
+        <f>L43&amp;"   "&amp;M43</f>
+        <v>812   فادي نصر رمزي</v>
+      </c>
+    </row>
+    <row r="44" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>817</v>
+      </c>
+      <c r="M44" t="s">
+        <v>78</v>
+      </c>
+      <c r="O44" t="str">
+        <f>L44&amp;"   "&amp;M44</f>
+        <v>817   بيشوي ايمن عبد الروؤف</v>
+      </c>
+    </row>
+    <row r="45" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>856</v>
+      </c>
+      <c r="M45" t="s">
+        <v>79</v>
+      </c>
+      <c r="O45" t="str">
+        <f>L45&amp;"   "&amp;M45</f>
+        <v xml:space="preserve">856   مينا مدحت سمير </v>
+      </c>
+    </row>
+    <row r="46" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>862</v>
+      </c>
+      <c r="M46" t="s">
+        <v>80</v>
+      </c>
+      <c r="O46" t="str">
+        <f>L46&amp;"   "&amp;M46</f>
+        <v xml:space="preserve">862   يوسف بولا جميل </v>
+      </c>
+    </row>
+    <row r="47" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>865</v>
+      </c>
+      <c r="M47" t="s">
+        <v>81</v>
+      </c>
+      <c r="O47" t="str">
+        <f>L47&amp;"   "&amp;M47</f>
+        <v>865   كيرلس هاني فوزي</v>
+      </c>
+    </row>
+    <row r="48" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>869</v>
+      </c>
+      <c r="M48" t="s">
+        <v>82</v>
+      </c>
+      <c r="O48" t="str">
+        <f>L48&amp;"   "&amp;M48</f>
+        <v>869   يوسف نشات رزق الله</v>
+      </c>
+    </row>
+    <row r="49" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>882</v>
+      </c>
+      <c r="M49" t="s">
+        <v>83</v>
+      </c>
+      <c r="O49" t="str">
+        <f>L49&amp;"   "&amp;M49</f>
+        <v xml:space="preserve">882   فرانك عصام جرجس </v>
+      </c>
+    </row>
+    <row r="50" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>883</v>
+      </c>
+      <c r="M50" t="s">
+        <v>84</v>
+      </c>
+      <c r="O50" t="str">
+        <f>L50&amp;"   "&amp;M50</f>
+        <v>883   جورج نشات جورج</v>
+      </c>
+    </row>
+    <row r="51" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>889</v>
+      </c>
+      <c r="M51" t="s">
+        <v>85</v>
+      </c>
+      <c r="O51" t="str">
+        <f>L51&amp;"   "&amp;M51</f>
+        <v>889   يوسف مسامح يوسف</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>891</v>
+      </c>
+      <c r="M52" t="s">
+        <v>86</v>
+      </c>
+      <c r="O52" t="str">
+        <f>L52&amp;"   "&amp;M52</f>
+        <v>891   كيرلس ناصر اليكسان</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D19">
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="C1:D19">
+    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+      <formula>ISNUMBER(DATE(YEAR($C1),MONTH($C1),DAY($C1)))*IFERROR(MID(TEXT($D1,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))+1,FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))+1)-FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))-1)&amp;"/"&amp;LEFT(TEXT($D1,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))-1)&amp;"/"&amp;RIGHT(TEXT($D1,"#"),LEN(TEXT($D1,"3"))-FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))+1))=TEXT($C1,"d/m/yyyy"),FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="11">
+      <formula>($C1=$D1)*($C1&lt;&gt;"")*($D1&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>($C1&lt;&gt;"not found")*($C1&lt;&gt;"")*($D1&lt;&gt;"")*($C1&lt;&gt;$D1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M15">
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
       <formula>ISNUMBER(DATE(YEAR($C2),MONTH($C2),DAY($C2)))*IFERROR(MID(TEXT($D2,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"))+1,FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"))+1)-FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"))-1)&amp;"/"&amp;LEFT(TEXT($D2,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"))-1)&amp;"/"&amp;RIGHT(TEXT($D2,"#"),LEN(TEXT($D2,"3"))-FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"))+1))=TEXT($C2,"d/m/yyyy"),FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>($C2=$D2)*($C2&lt;&gt;"")*($D2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>($C2&lt;&gt;"not found")*($C2&lt;&gt;"")*($D2&lt;&gt;"")*($C2&lt;&gt;$D2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
-      <formula>ISNUMBER(DATE(YEAR($C1),MONTH($C1),DAY($C1)))*IFERROR(MID(TEXT($D1,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))+1,FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))+1)-FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))-1)&amp;"/"&amp;LEFT(TEXT($D1,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))-1)&amp;"/"&amp;RIGHT(TEXT($D1,"#"),LEN(TEXT($D1,"3"))-FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))+1))=TEXT($C1,"d/m/yyyy"),FALSE)</formula>
+  <conditionalFormatting sqref="M29">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>ISNUMBER(DATE(YEAR($C29),MONTH($C29),DAY($C29)))*IFERROR(MID(TEXT($D29,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"))+1,FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"))+1)-FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"))-1)&amp;"/"&amp;LEFT(TEXT($D29,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"))-1)&amp;"/"&amp;RIGHT(TEXT($D29,"#"),LEN(TEXT($D29,"3"))-FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"))+1))=TEXT($C29,"d/m/yyyy"),FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>($C1=$D1)*($C1&lt;&gt;"")*($D1&lt;&gt;"")</formula>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>($C29=$D29)*($C29&lt;&gt;"")*($D29&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>($C1&lt;&gt;"not found")*($C1&lt;&gt;"")*($D1&lt;&gt;"")*($C1&lt;&gt;$D1)</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>($C29&lt;&gt;"not found")*($C29&lt;&gt;"")*($D29&lt;&gt;"")*($C29&lt;&gt;$D29)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>ISNUMBER(DATE(YEAR($C33),MONTH($C33),DAY($C33)))*IFERROR(MID(TEXT($D33,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"))+1,FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"))+1)-FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"))-1)&amp;"/"&amp;LEFT(TEXT($D33,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"))-1)&amp;"/"&amp;RIGHT(TEXT($D33,"#"),LEN(TEXT($D33,"3"))-FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"))+1))=TEXT($C33,"d/m/yyyy"),FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>($C33=$D33)*($C33&lt;&gt;"")*($D33&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>($C33&lt;&gt;"not found")*($C33&lt;&gt;"")*($D33&lt;&gt;"")*($C33&lt;&gt;$D33)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1628,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26564200-F093-4A51-857E-5F071A182D00}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,396 +2391,396 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="44">
+      <c r="A2">
         <v>425</v>
       </c>
-      <c r="B2" s="41" t="b">
+      <c r="B2" s="35" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="44">
+      <c r="A3">
         <v>450</v>
       </c>
-      <c r="B3" s="38" t="b">
+      <c r="B3" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="44">
+      <c r="A4">
         <v>436</v>
       </c>
-      <c r="B4" s="38" t="b">
+      <c r="B4" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
+      <c r="A5" s="38">
         <v>433</v>
       </c>
-      <c r="B5" s="38" t="b">
+      <c r="B5" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
+      <c r="A6">
         <v>246</v>
       </c>
-      <c r="B6" s="38" t="b">
+      <c r="B6" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="44">
+      <c r="A7">
         <v>247</v>
       </c>
-      <c r="B7" s="38" t="b">
+      <c r="B7" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
+      <c r="A8">
         <v>248</v>
       </c>
-      <c r="B8" s="38" t="b">
+      <c r="B8" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="44">
+      <c r="A9">
         <v>214</v>
       </c>
-      <c r="B9" s="38" t="b">
+      <c r="B9" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="44">
+      <c r="A10">
         <v>245</v>
       </c>
-      <c r="B10" s="38" t="b">
+      <c r="B10" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="44">
+      <c r="A11">
         <v>519</v>
       </c>
-      <c r="B11" s="38" t="b">
+      <c r="B11" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="44">
+      <c r="A12">
         <v>138</v>
       </c>
-      <c r="B12" s="38" t="b">
+      <c r="B12" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="44">
+      <c r="A13">
         <v>120</v>
       </c>
-      <c r="B13" s="38" t="b">
+      <c r="B13" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
+      <c r="A14">
         <v>323</v>
       </c>
-      <c r="B14" s="38" t="b">
+      <c r="B14" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="44">
+      <c r="A15">
         <v>318</v>
       </c>
-      <c r="B15" s="38" t="b">
+      <c r="B15" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
+      <c r="A16">
         <v>742</v>
       </c>
-      <c r="B16" s="38" t="b">
+      <c r="B16" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="44">
+      <c r="A17">
         <v>745</v>
       </c>
-      <c r="B17" s="38" t="b">
+      <c r="B17" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="44">
+      <c r="A18">
         <v>738</v>
       </c>
-      <c r="B18" s="38" t="b">
+      <c r="B18" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="44">
+      <c r="A19">
         <v>717</v>
       </c>
-      <c r="B19" s="38" t="b">
+      <c r="B19" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
+      <c r="A20" s="38">
         <v>742</v>
       </c>
-      <c r="B20" s="38" t="b">
+      <c r="B20" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="44">
+      <c r="A21">
         <v>866</v>
       </c>
-      <c r="B21" s="38" t="b">
+      <c r="B21" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="44">
+      <c r="A22">
         <v>874</v>
       </c>
-      <c r="B22" s="38" t="b">
+      <c r="B22" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="45">
+      <c r="A23" s="38">
         <v>864</v>
       </c>
-      <c r="B23" s="38" t="b">
+      <c r="B23" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="45">
+      <c r="A24" s="38">
         <v>440</v>
       </c>
-      <c r="B24" s="38" t="b">
+      <c r="B24" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="45">
+      <c r="A25" s="38">
         <v>435</v>
       </c>
-      <c r="B25" s="40" t="b">
+      <c r="B25" s="34" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="44">
+      <c r="A26">
         <v>231</v>
       </c>
-      <c r="B26" s="38" t="b">
+      <c r="B26" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="45">
+      <c r="A27" s="38">
         <v>225</v>
       </c>
-      <c r="B27" s="38" t="b">
+      <c r="B27" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="45">
+      <c r="A28" s="38">
         <v>243</v>
       </c>
-      <c r="B28" s="38" t="b">
+      <c r="B28" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="45">
+      <c r="A29" s="38">
         <v>231</v>
       </c>
-      <c r="B29" s="38" t="b">
+      <c r="B29" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="44">
+      <c r="A30">
         <v>511</v>
       </c>
-      <c r="B30" s="38" t="b">
+      <c r="B30" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="44">
+      <c r="A31">
         <v>525</v>
       </c>
-      <c r="B31" s="38" t="b">
+      <c r="B31" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="45">
+      <c r="A32" s="38">
         <v>525</v>
       </c>
-      <c r="B32" s="38" t="b">
+      <c r="B32" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="45">
+      <c r="A33" s="38">
         <v>128</v>
       </c>
-      <c r="B33" s="38" t="b">
+      <c r="B33" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="45">
+      <c r="A34" s="38">
         <v>126</v>
       </c>
-      <c r="B34" s="38" t="b">
+      <c r="B34" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="45">
+      <c r="A35" s="38">
         <v>310</v>
       </c>
-      <c r="B35" s="38" t="b">
+      <c r="B35" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="45">
+      <c r="A36" s="38">
         <v>337</v>
       </c>
-      <c r="B36" s="38" t="b">
+      <c r="B36" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="45">
+      <c r="A37" s="38">
         <v>336</v>
       </c>
-      <c r="B37" s="38" t="b">
+      <c r="B37" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="46">
+      <c r="A38" s="27">
         <v>740</v>
       </c>
-      <c r="B38" s="38" t="b">
+      <c r="B38" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="42">
+      <c r="A39" s="36">
         <v>726</v>
       </c>
-      <c r="B39" s="38" t="b">
+      <c r="B39" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="42">
+      <c r="A40" s="36">
         <v>718</v>
       </c>
-      <c r="B40" s="38" t="b">
+      <c r="B40" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="42">
+      <c r="A41" s="36">
         <v>740</v>
       </c>
-      <c r="B41" s="38" t="b">
+      <c r="B41" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="46">
+      <c r="A42" s="27">
         <v>879</v>
       </c>
-      <c r="B42" s="38" t="b">
+      <c r="B42" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="42">
+      <c r="A43" s="36">
         <v>879</v>
       </c>
-      <c r="B43" s="38" t="b">
+      <c r="B43" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="42">
+      <c r="A44" s="36">
         <v>830</v>
       </c>
-      <c r="B44" s="38" t="b">
+      <c r="B44" s="32" t="b">
         <f>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</f>
         <v>1</v>
       </c>
@@ -2045,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868D733A-7504-48DC-98CD-54A9532CCEDE}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2057,7 +2810,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2074,31 +2827,31 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="36">
+      <c r="A2" s="30">
         <v>113</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="24">
         <v>45417</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="29">
         <v>0.5493055555555556</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <v>129</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2108,31 +2861,31 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+      <c r="A4" s="30">
         <v>133</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>45417</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="29">
         <v>0.5493055555555556</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>139</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2142,14 +2895,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>211</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -2159,14 +2912,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -2176,14 +2929,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>317</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -2193,14 +2946,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>325</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -2210,14 +2963,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="2">
         <v>329</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -2227,14 +2980,14 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>334</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -2244,14 +2997,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>338</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -2261,16 +3014,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>342</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2278,14 +3031,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>346</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -2295,16 +3048,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+      <c r="A15" s="21">
         <v>418</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2312,16 +3065,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="1">
         <v>438</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2329,16 +3082,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>444</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2346,16 +3099,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="A18" s="2">
         <v>445</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2363,16 +3116,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="21">
         <v>530</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2380,14 +3133,14 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="A20" s="2">
         <v>610</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
@@ -2397,14 +3150,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>611</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
@@ -2414,16 +3167,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="1">
         <v>612</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2431,14 +3184,14 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+      <c r="A23" s="21">
         <v>616</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
@@ -2448,14 +3201,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="1">
         <v>617</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -2465,14 +3218,14 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>710</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -2482,14 +3235,14 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="1">
         <v>721</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -2499,14 +3252,14 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="21">
         <v>722</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -2516,14 +3269,14 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+      <c r="A28" s="2">
         <v>735</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -2533,14 +3286,14 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="21">
         <v>812</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -2550,14 +3303,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="1">
         <v>817</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
@@ -2567,14 +3320,14 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>856</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
@@ -2584,14 +3337,14 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="1">
         <v>862</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
@@ -2601,14 +3354,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+      <c r="A33" s="21">
         <v>865</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D33" t="s">
         <v>31</v>
@@ -2618,16 +3371,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="1">
         <v>869</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -2635,31 +3388,31 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="37">
+      <c r="A35" s="31">
         <v>882</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="24">
         <v>45417</v>
       </c>
-      <c r="C35" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="28" t="s">
+      <c r="C35" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="29">
         <v>0.5493055555555556</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="2">
         <v>883</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
@@ -2669,14 +3422,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>889</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>31</v>
@@ -2686,14 +3439,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="22">
+      <c r="A38" s="2">
         <v>891</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
@@ -2703,62 +3456,62 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
+      <c r="A40" s="1"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="14" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="14" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="14" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2773,7 +3526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57A2C27-A0EC-4339-B754-AA9A7DFBF0F5}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
@@ -2784,19 +3537,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="44">
+      <c r="A2">
         <v>120</v>
       </c>
       <c r="B2" t="s">
@@ -2806,36 +3559,36 @@
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
+      <c r="A3" s="38">
         <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="35" t="b">
-        <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="16"/>
+      <c r="C3" t="b">
+        <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="45">
+      <c r="A4" s="38">
         <v>128</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="35" t="b">
-        <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="16"/>
+      <c r="C4" t="b">
+        <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44">
+      <c r="A5">
         <v>138</v>
       </c>
       <c r="B5" t="s">
@@ -2845,23 +3598,23 @@
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
+      <c r="A6">
         <v>139</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>1</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="44">
+      <c r="A7">
         <v>214</v>
       </c>
       <c r="B7" t="s">
@@ -2871,23 +3624,23 @@
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="45">
+      <c r="A8" s="38">
         <v>225</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="35" t="b">
-        <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="16"/>
+      <c r="C8" t="b">
+        <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="44">
+      <c r="A9">
         <v>231</v>
       </c>
       <c r="B9" t="s">
@@ -2897,36 +3650,36 @@
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
+      <c r="A10" s="38">
         <v>231</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="35" t="b">
-        <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="16"/>
+      <c r="C10" t="b">
+        <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="45">
+      <c r="A11" s="38">
         <v>243</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="35" t="b">
-        <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="16"/>
+      <c r="C11" t="b">
+        <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="44">
+      <c r="A12">
         <v>245</v>
       </c>
       <c r="B12" t="s">
@@ -2936,10 +3689,10 @@
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="44">
+      <c r="A13">
         <v>246</v>
       </c>
       <c r="B13" t="s">
@@ -2949,10 +3702,10 @@
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
+      <c r="A14">
         <v>247</v>
       </c>
       <c r="B14" t="s">
@@ -2964,7 +3717,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="44">
+      <c r="A15">
         <v>248</v>
       </c>
       <c r="B15" t="s">
@@ -2976,19 +3729,19 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="45">
+      <c r="A16" s="38">
         <v>310</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="35" t="b">
+      <c r="C16" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="44">
+      <c r="A17">
         <v>317</v>
       </c>
       <c r="B17" t="s">
@@ -3000,7 +3753,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="44">
+      <c r="A18">
         <v>318</v>
       </c>
       <c r="B18" t="s">
@@ -3012,10 +3765,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="44">
+      <c r="A19">
         <v>323</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="b">
@@ -3024,22 +3777,22 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
+      <c r="A20" s="38">
         <v>325</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="35" t="b">
+      <c r="C20" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="44">
+      <c r="A21">
         <v>329</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="b">
@@ -3048,31 +3801,31 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="45">
+      <c r="A22" s="38">
         <v>336</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="35" t="b">
+      <c r="C22" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="45">
+      <c r="A23" s="38">
         <v>337</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="35" t="b">
+      <c r="C23" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="44">
+      <c r="A24">
         <v>425</v>
       </c>
       <c r="B24" t="s">
@@ -3084,31 +3837,31 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="45">
+      <c r="A25" s="38">
         <v>433</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="35" t="b">
+      <c r="C25" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="45">
+      <c r="A26" s="38">
         <v>435</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="35" t="b">
+      <c r="C26" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="44">
+      <c r="A27">
         <v>436</v>
       </c>
       <c r="B27" t="s">
@@ -3120,22 +3873,22 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="45">
+      <c r="A28" s="38">
         <v>440</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="35" t="b">
+      <c r="C28" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="44">
+      <c r="A29">
         <v>444</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="b">
@@ -3144,10 +3897,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="44">
+      <c r="A30">
         <v>445</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C30" t="b">
@@ -3156,19 +3909,19 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="45">
+      <c r="A31" s="38">
         <v>445</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="35" t="b">
+      <c r="C31" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="44">
+      <c r="A32">
         <v>450</v>
       </c>
       <c r="B32" t="s">
@@ -3180,7 +3933,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="44">
+      <c r="A33">
         <v>511</v>
       </c>
       <c r="B33" t="s">
@@ -3192,7 +3945,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="44">
+      <c r="A34">
         <v>519</v>
       </c>
       <c r="B34" t="s">
@@ -3204,7 +3957,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="44">
+      <c r="A35">
         <v>525</v>
       </c>
       <c r="B35" t="s">
@@ -3216,19 +3969,19 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="45">
+      <c r="A36" s="38">
         <v>525</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="35" t="b">
+      <c r="C36" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="44">
+      <c r="A37">
         <v>616</v>
       </c>
       <c r="B37" t="s">
@@ -3240,7 +3993,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="46">
+      <c r="A38" s="27">
         <v>717</v>
       </c>
       <c r="B38" t="s">
@@ -3252,22 +4005,22 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="42">
+      <c r="A39" s="36">
         <v>718</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="35" t="b">
+      <c r="C39" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="46">
+      <c r="A40" s="27">
         <v>721</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="b">
@@ -3276,10 +4029,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="46">
+      <c r="A41" s="27">
         <v>722</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="b">
@@ -3288,19 +4041,19 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
+      <c r="A42" s="36">
         <v>726</v>
       </c>
       <c r="B42" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="35" t="b">
+      <c r="C42" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="46">
+      <c r="A43" s="27">
         <v>735</v>
       </c>
       <c r="B43" t="s">
@@ -3312,7 +4065,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="46">
+      <c r="A44" s="27">
         <v>738</v>
       </c>
       <c r="B44" t="s">
@@ -3324,10 +4077,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="46">
+      <c r="A45" s="27">
         <v>740</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C45" t="b">
@@ -3336,22 +4089,22 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="42">
+      <c r="A46" s="36">
         <v>740</v>
       </c>
       <c r="B46" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="35" t="b">
+      <c r="C46" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="46">
+      <c r="A47" s="27">
         <v>742</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C47" t="b">
@@ -3360,19 +4113,19 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="42">
+      <c r="A48" s="36">
         <v>742</v>
       </c>
       <c r="B48" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="35" t="b">
+      <c r="C48" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="46">
+      <c r="A49" s="27">
         <v>745</v>
       </c>
       <c r="B49" t="s">
@@ -3384,19 +4137,19 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="42">
+      <c r="A50" s="36">
         <v>830</v>
       </c>
       <c r="B50" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="35" t="b">
+      <c r="C50" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="46">
+      <c r="A51" s="27">
         <v>856</v>
       </c>
       <c r="B51" t="s">
@@ -3408,31 +4161,31 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="42">
+      <c r="A52" s="36">
         <v>856</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="35" t="b">
+      <c r="C52" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="42">
+      <c r="A53" s="36">
         <v>864</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="35" t="b">
+      <c r="C53" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="46">
+      <c r="A54" s="27">
         <v>866</v>
       </c>
       <c r="B54" t="s">
@@ -3444,7 +4197,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="46">
+      <c r="A55" s="27">
         <v>874</v>
       </c>
       <c r="B55" t="s">
@@ -3456,7 +4209,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="46">
+      <c r="A56" s="27">
         <v>879</v>
       </c>
       <c r="B56" t="s">
@@ -3468,19 +4221,19 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="42">
+      <c r="A57" s="36">
         <v>879</v>
       </c>
       <c r="B57" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="35" t="b">
+      <c r="C57" t="b">
         <f>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="46">
+      <c r="A58" s="27">
         <v>883</v>
       </c>
       <c r="B58" t="s">
@@ -3492,7 +4245,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="46">
+      <c r="A59" s="27">
         <v>891</v>
       </c>
       <c r="B59" t="s">
@@ -3504,50 +4257,38 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="42"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="35"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="16"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
-      <c r="C61" s="35"/>
+      <c r="A61" s="36"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
-      <c r="C62" s="35"/>
+      <c r="A62" s="36"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="C63" s="35"/>
+      <c r="A63" s="36"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="42"/>
-      <c r="C64" s="35"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="C65" s="35"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="42"/>
-      <c r="C66" s="35"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="C67" s="35"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="42"/>
-      <c r="C68" s="35"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="C69" s="35"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="43"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="44"/>
+      <c r="A64" s="36"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="36"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="36"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="36"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="36"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="36"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Tools/Apparatus.xlsx
+++ b/Tools/Apparatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\preparatory\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8DE7E4-A0EA-4714-9CE2-D8B834109BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70C0A79-DF2C-4BE6-95B7-D629269C3D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,35 +619,7 @@
     <cellStyle name="Normal_Sheet3" xfId="2" xr:uid="{DCC24432-2790-45D8-894A-FD576ECE15F0}"/>
     <cellStyle name="Normal_حضور المرة اللي فاتت" xfId="3" xr:uid="{378E23F2-5256-480C-8082-4FC46A4C0536}"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
@@ -1189,24 +1161,24 @@
     <sortCondition ref="D1:D19"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{66174B3E-A499-45DA-BCFE-AC99D096230F}" name="Column1" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{B9037508-EA2D-4E64-A24A-2F068D2C8994}" name="Column2" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{A50D6B20-3816-4D42-872A-7B39EAAD5928}" name="Column3" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{A9D2B851-3470-4FD1-91F6-C52C0A90E51C}" name="Column4" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{66174B3E-A499-45DA-BCFE-AC99D096230F}" name="Column1" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{B9037508-EA2D-4E64-A24A-2F068D2C8994}" name="Column2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{A50D6B20-3816-4D42-872A-7B39EAAD5928}" name="Column3" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{A9D2B851-3470-4FD1-91F6-C52C0A90E51C}" name="Column4" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2B957314-52DA-486F-BA48-56F0E26F9DBA}" name="Table6" displayName="Table6" ref="A1:B44" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2B957314-52DA-486F-BA48-56F0E26F9DBA}" name="Table6" displayName="Table6" ref="A1:B44" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:B44" xr:uid="{2B957314-52DA-486F-BA48-56F0E26F9DBA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B44">
     <sortCondition ref="B1:B44"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{80BD357F-4997-47E8-9A2D-15E469F48E00}" name="Column1" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{B3AB07A4-5004-459E-875A-7B6A666C3A05}" name="Column2" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{80BD357F-4997-47E8-9A2D-15E469F48E00}" name="Column1" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{B3AB07A4-5004-459E-875A-7B6A666C3A05}" name="Column2" dataDxfId="20">
       <calculatedColumnFormula>ISNUMBER(MATCH(Table6[[#This Row],[Column1]],Table5[Column1],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1215,17 +1187,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F0B8927B-2390-482D-A584-00F5A93DC390}" name="Table3" displayName="Table3" ref="A1:E38" totalsRowShown="0" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F0B8927B-2390-482D-A584-00F5A93DC390}" name="Table3" displayName="Table3" ref="A1:E38" totalsRowShown="0" tableBorderDxfId="19">
   <autoFilter ref="A1:E38" xr:uid="{F0B8927B-2390-482D-A584-00F5A93DC390}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">
     <sortCondition ref="A1:A38"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4DF55668-EC33-4E7C-97AC-4D6820E82B08}" name="Column1" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{D44FC27F-13E7-4E79-85D7-C6E47BEBB20B}" name="Column2" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{B06D43D7-BE12-498E-B2DA-5B4A658C87B2}" name="Column3" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{94E69240-30FE-4B59-A60F-23A7D2E8AEC6}" name="Column4" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{0A990159-6EFB-46B3-8587-B0395D470836}" name="Column5" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{4DF55668-EC33-4E7C-97AC-4D6820E82B08}" name="Column1" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{D44FC27F-13E7-4E79-85D7-C6E47BEBB20B}" name="Column2" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{B06D43D7-BE12-498E-B2DA-5B4A658C87B2}" name="Column3" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{94E69240-30FE-4B59-A60F-23A7D2E8AEC6}" name="Column4" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{0A990159-6EFB-46B3-8587-B0395D470836}" name="Column5" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1238,9 +1210,9 @@
     <sortCondition ref="A1:A59"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7A797E0F-F5A5-4FC1-A6DD-107534414846}" name="Column1" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{7A797E0F-F5A5-4FC1-A6DD-107534414846}" name="Column1" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{63C521FF-3451-4BD8-896E-2EBEF0D40FED}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{D1F62480-1B2F-4B22-AA29-DAC2B009F7C7}" name="Column3" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{D1F62480-1B2F-4B22-AA29-DAC2B009F7C7}" name="Column3" dataDxfId="12">
       <calculatedColumnFormula>ISNUMBER(MATCH(Table4[[#This Row],[Column1]],Table3[Column1],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1513,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="89" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,7 +1531,7 @@
         <v>35</v>
       </c>
       <c r="O2" t="str">
-        <f>L2&amp;"   "&amp;M2</f>
+        <f t="shared" ref="O2:O33" si="0">L2&amp;"   "&amp;M2</f>
         <v xml:space="preserve">243   يوسف عادل حليم </v>
       </c>
     </row>
@@ -1581,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="O3" t="str">
-        <f>L3&amp;"   "&amp;M3</f>
+        <f t="shared" si="0"/>
         <v>878   بافلي اديب سمير</v>
       </c>
     </row>
@@ -1603,7 +1575,7 @@
         <v>36</v>
       </c>
       <c r="O4" t="str">
-        <f>L4&amp;"   "&amp;M4</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">879   ميشيل اكرامي حبيب </v>
       </c>
     </row>
@@ -1625,7 +1597,7 @@
         <v>37</v>
       </c>
       <c r="O5" t="str">
-        <f>L5&amp;"   "&amp;M5</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">525   مارك سامح ابراهيم </v>
       </c>
     </row>
@@ -1647,7 +1619,7 @@
         <v>38</v>
       </c>
       <c r="O6" t="str">
-        <f>L6&amp;"   "&amp;M6</f>
+        <f t="shared" si="0"/>
         <v>830   فادي بشرى نادي</v>
       </c>
     </row>
@@ -1669,7 +1641,7 @@
         <v>39</v>
       </c>
       <c r="O7" t="str">
-        <f>L7&amp;"   "&amp;M7</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">310   ابانوب عماد جابر </v>
       </c>
     </row>
@@ -1691,7 +1663,7 @@
         <v>40</v>
       </c>
       <c r="O8" t="str">
-        <f>L8&amp;"   "&amp;M8</f>
+        <f t="shared" si="0"/>
         <v>726   سامح ملاك صابر</v>
       </c>
     </row>
@@ -1713,7 +1685,7 @@
         <v>42</v>
       </c>
       <c r="O9" t="str">
-        <f>L9&amp;"   "&amp;M9</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">336   يوحنا فايز ادوارد </v>
       </c>
     </row>
@@ -1735,7 +1707,7 @@
         <v>44</v>
       </c>
       <c r="O10" t="str">
-        <f>L10&amp;"   "&amp;M10</f>
+        <f t="shared" si="0"/>
         <v>128   كارلوس شنودة تادرس</v>
       </c>
     </row>
@@ -1757,7 +1729,7 @@
         <v>45</v>
       </c>
       <c r="O11" t="str">
-        <f>L11&amp;"   "&amp;M11</f>
+        <f t="shared" si="0"/>
         <v>718   بيشوي جرجس عيد</v>
       </c>
     </row>
@@ -1779,7 +1751,7 @@
         <v>46</v>
       </c>
       <c r="O12" t="str">
-        <f>L12&amp;"   "&amp;M12</f>
+        <f t="shared" si="0"/>
         <v>838   كيرلس عوني رافت</v>
       </c>
     </row>
@@ -1801,7 +1773,7 @@
         <v>47</v>
       </c>
       <c r="O13" t="str">
-        <f>L13&amp;"   "&amp;M13</f>
+        <f t="shared" si="0"/>
         <v>740   مينا منير امير</v>
       </c>
     </row>
@@ -1823,7 +1795,7 @@
         <v>48</v>
       </c>
       <c r="O14" t="str">
-        <f>L14&amp;"   "&amp;M14</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">435   فادي هاني صموئيل </v>
       </c>
     </row>
@@ -1845,7 +1817,7 @@
         <v>32</v>
       </c>
       <c r="O15" t="str">
-        <f>L15&amp;"   "&amp;M15</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">440   فيلوباتير عيد اسحق </v>
       </c>
     </row>
@@ -1865,7 +1837,7 @@
         <v>52</v>
       </c>
       <c r="O16" t="str">
-        <f>L16&amp;"   "&amp;M16</f>
+        <f t="shared" si="0"/>
         <v>113   اوليفر مجدي سمير</v>
       </c>
     </row>
@@ -1885,7 +1857,7 @@
         <v>53</v>
       </c>
       <c r="O17" t="str">
-        <f>L17&amp;"   "&amp;M17</f>
+        <f t="shared" si="0"/>
         <v>129   مارك روماني القمص دوماديوس</v>
       </c>
     </row>
@@ -1905,7 +1877,7 @@
         <v>54</v>
       </c>
       <c r="O18" t="str">
-        <f>L18&amp;"   "&amp;M18</f>
+        <f t="shared" si="0"/>
         <v>133   ميخائيل جرجس محروس</v>
       </c>
     </row>
@@ -1925,7 +1897,7 @@
         <v>55</v>
       </c>
       <c r="O19" t="str">
-        <f>L19&amp;"   "&amp;M19</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">139   انطونيوس باسم وليم </v>
       </c>
     </row>
@@ -1937,7 +1909,7 @@
         <v>56</v>
       </c>
       <c r="O20" t="str">
-        <f>L20&amp;"   "&amp;M20</f>
+        <f t="shared" si="0"/>
         <v>211   امير عادل جرجس حنا</v>
       </c>
     </row>
@@ -1949,7 +1921,7 @@
         <v>57</v>
       </c>
       <c r="O21" t="str">
-        <f>L21&amp;"   "&amp;M21</f>
+        <f t="shared" si="0"/>
         <v>254   بيتر ماهر عزمي</v>
       </c>
     </row>
@@ -1961,7 +1933,7 @@
         <v>58</v>
       </c>
       <c r="O22" t="str">
-        <f>L22&amp;"   "&amp;M22</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">317   بولا زاخر جرجس </v>
       </c>
     </row>
@@ -1973,7 +1945,7 @@
         <v>59</v>
       </c>
       <c r="O23" t="str">
-        <f>L23&amp;"   "&amp;M23</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">325   سمير سامح سمير </v>
       </c>
     </row>
@@ -1985,7 +1957,7 @@
         <v>60</v>
       </c>
       <c r="O24" t="str">
-        <f>L24&amp;"   "&amp;M24</f>
+        <f t="shared" si="0"/>
         <v>329   كيرلس جرجس عيسى</v>
       </c>
     </row>
@@ -1997,7 +1969,7 @@
         <v>61</v>
       </c>
       <c r="O25" t="str">
-        <f>L25&amp;"   "&amp;M25</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">334   ماريو ماجد مهاود </v>
       </c>
     </row>
@@ -2009,7 +1981,7 @@
         <v>62</v>
       </c>
       <c r="O26" t="str">
-        <f>L26&amp;"   "&amp;M26</f>
+        <f t="shared" si="0"/>
         <v>338   ميخائيل القس اسحق قسطور</v>
       </c>
     </row>
@@ -2021,7 +1993,7 @@
         <v>63</v>
       </c>
       <c r="O27" t="str">
-        <f>L27&amp;"   "&amp;M27</f>
+        <f t="shared" si="0"/>
         <v>342   باترك تيسير ادوار</v>
       </c>
     </row>
@@ -2033,7 +2005,7 @@
         <v>64</v>
       </c>
       <c r="O28" t="str">
-        <f>L28&amp;"   "&amp;M28</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">346   مارتن مجدي جمال </v>
       </c>
     </row>
@@ -2045,7 +2017,7 @@
         <v>87</v>
       </c>
       <c r="O29" t="str">
-        <f>L29&amp;"   "&amp;M29</f>
+        <f t="shared" si="0"/>
         <v>343   بيتر فرنسيس منير فرنسيس</v>
       </c>
     </row>
@@ -2057,7 +2029,7 @@
         <v>65</v>
       </c>
       <c r="O30" t="str">
-        <f>L30&amp;"   "&amp;M30</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">438   فيلوباتير عماد كمال </v>
       </c>
     </row>
@@ -2069,7 +2041,7 @@
         <v>66</v>
       </c>
       <c r="O31" t="str">
-        <f>L31&amp;"   "&amp;M31</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">444   ماثيو موسي مكاري </v>
       </c>
     </row>
@@ -2081,7 +2053,7 @@
         <v>67</v>
       </c>
       <c r="O32" t="str">
-        <f>L32&amp;"   "&amp;M32</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">445   مارتن ماجد شوقي </v>
       </c>
     </row>
@@ -2093,7 +2065,7 @@
         <v>88</v>
       </c>
       <c r="O33" t="str">
-        <f>L33&amp;"   "&amp;M33</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">880   نوفير اسامة حنا </v>
       </c>
     </row>
@@ -2105,7 +2077,7 @@
         <v>68</v>
       </c>
       <c r="O34" t="str">
-        <f>L34&amp;"   "&amp;M34</f>
+        <f t="shared" ref="O34:O52" si="1">L34&amp;"   "&amp;M34</f>
         <v>610   فادي عماد موسى</v>
       </c>
     </row>
@@ -2117,7 +2089,7 @@
         <v>69</v>
       </c>
       <c r="O35" t="str">
-        <f>L35&amp;"   "&amp;M35</f>
+        <f t="shared" si="1"/>
         <v>611   رضا صبحي ايوب</v>
       </c>
     </row>
@@ -2129,7 +2101,7 @@
         <v>70</v>
       </c>
       <c r="O36" t="str">
-        <f>L36&amp;"   "&amp;M36</f>
+        <f t="shared" si="1"/>
         <v>612   كيرلس صبحي ايوب</v>
       </c>
     </row>
@@ -2141,7 +2113,7 @@
         <v>71</v>
       </c>
       <c r="O37" t="str">
-        <f>L37&amp;"   "&amp;M37</f>
+        <f t="shared" si="1"/>
         <v>616   توماس مرزق يوسف</v>
       </c>
     </row>
@@ -2153,7 +2125,7 @@
         <v>72</v>
       </c>
       <c r="O38" t="str">
-        <f>L38&amp;"   "&amp;M38</f>
+        <f t="shared" si="1"/>
         <v>617   شنودة مرزق يوسف</v>
       </c>
     </row>
@@ -2165,7 +2137,7 @@
         <v>73</v>
       </c>
       <c r="O39" t="str">
-        <f>L39&amp;"   "&amp;M39</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">710   ابانوب إيهاب سعد </v>
       </c>
     </row>
@@ -2177,7 +2149,7 @@
         <v>74</v>
       </c>
       <c r="O40" t="str">
-        <f>L40&amp;"   "&amp;M40</f>
+        <f t="shared" si="1"/>
         <v>721   جاستن مجدي ابراهيم توفيق</v>
       </c>
     </row>
@@ -2189,7 +2161,7 @@
         <v>75</v>
       </c>
       <c r="O41" t="str">
-        <f>L41&amp;"   "&amp;M41</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">722   جون روماني مسعد </v>
       </c>
     </row>
@@ -2201,7 +2173,7 @@
         <v>76</v>
       </c>
       <c r="O42" t="str">
-        <f>L42&amp;"   "&amp;M42</f>
+        <f t="shared" si="1"/>
         <v>735   مارك منير كامل</v>
       </c>
     </row>
@@ -2213,7 +2185,7 @@
         <v>77</v>
       </c>
       <c r="O43" t="str">
-        <f>L43&amp;"   "&amp;M43</f>
+        <f t="shared" si="1"/>
         <v>812   فادي نصر رمزي</v>
       </c>
     </row>
@@ -2225,7 +2197,7 @@
         <v>78</v>
       </c>
       <c r="O44" t="str">
-        <f>L44&amp;"   "&amp;M44</f>
+        <f t="shared" si="1"/>
         <v>817   بيشوي ايمن عبد الروؤف</v>
       </c>
     </row>
@@ -2237,7 +2209,7 @@
         <v>79</v>
       </c>
       <c r="O45" t="str">
-        <f>L45&amp;"   "&amp;M45</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">856   مينا مدحت سمير </v>
       </c>
     </row>
@@ -2249,7 +2221,7 @@
         <v>80</v>
       </c>
       <c r="O46" t="str">
-        <f>L46&amp;"   "&amp;M46</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">862   يوسف بولا جميل </v>
       </c>
     </row>
@@ -2261,7 +2233,7 @@
         <v>81</v>
       </c>
       <c r="O47" t="str">
-        <f>L47&amp;"   "&amp;M47</f>
+        <f t="shared" si="1"/>
         <v>865   كيرلس هاني فوزي</v>
       </c>
     </row>
@@ -2273,7 +2245,7 @@
         <v>82</v>
       </c>
       <c r="O48" t="str">
-        <f>L48&amp;"   "&amp;M48</f>
+        <f t="shared" si="1"/>
         <v>869   يوسف نشات رزق الله</v>
       </c>
     </row>
@@ -2285,7 +2257,7 @@
         <v>83</v>
       </c>
       <c r="O49" t="str">
-        <f>L49&amp;"   "&amp;M49</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">882   فرانك عصام جرجس </v>
       </c>
     </row>
@@ -2297,7 +2269,7 @@
         <v>84</v>
       </c>
       <c r="O50" t="str">
-        <f>L50&amp;"   "&amp;M50</f>
+        <f t="shared" si="1"/>
         <v>883   جورج نشات جورج</v>
       </c>
     </row>
@@ -2309,7 +2281,7 @@
         <v>85</v>
       </c>
       <c r="O51" t="str">
-        <f>L51&amp;"   "&amp;M51</f>
+        <f t="shared" si="1"/>
         <v>889   يوسف مسامح يوسف</v>
       </c>
     </row>
@@ -2321,52 +2293,52 @@
         <v>86</v>
       </c>
       <c r="O52" t="str">
-        <f>L52&amp;"   "&amp;M52</f>
+        <f t="shared" si="1"/>
         <v>891   كيرلس ناصر اليكسان</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D19">
-    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>ISNUMBER(DATE(YEAR($C1),MONTH($C1),DAY($C1)))*IFERROR(MID(TEXT($D1,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))+1,FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))+1)-FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))-1)&amp;"/"&amp;LEFT(TEXT($D1,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))-1)&amp;"/"&amp;RIGHT(TEXT($D1,"#"),LEN(TEXT($D1,"3"))-FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D1,"#"))),"/","-"),TEXT($D1,"#"))+1))=TEXT($C1,"d/m/yyyy"),FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>($C1=$D1)*($C1&lt;&gt;"")*($D1&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>($C1&lt;&gt;"not found")*($C1&lt;&gt;"")*($D1&lt;&gt;"")*($C1&lt;&gt;$D1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M15">
-    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>ISNUMBER(DATE(YEAR($C2),MONTH($C2),DAY($C2)))*IFERROR(MID(TEXT($D2,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"))+1,FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"))+1)-FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"))-1)&amp;"/"&amp;LEFT(TEXT($D2,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"))-1)&amp;"/"&amp;RIGHT(TEXT($D2,"#"),LEN(TEXT($D2,"3"))-FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D2,"#"))),"/","-"),TEXT($D2,"#"))+1))=TEXT($C2,"d/m/yyyy"),FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>($C2=$D2)*($C2&lt;&gt;"")*($D2&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>($C2&lt;&gt;"not found")*($C2&lt;&gt;"")*($D2&lt;&gt;"")*($C2&lt;&gt;$D2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>ISNUMBER(DATE(YEAR($C29),MONTH($C29),DAY($C29)))*IFERROR(MID(TEXT($D29,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"))+1,FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"))+1)-FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"))-1)&amp;"/"&amp;LEFT(TEXT($D29,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"))-1)&amp;"/"&amp;RIGHT(TEXT($D29,"#"),LEN(TEXT($D29,"3"))-FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D29,"#"))),"/","-"),TEXT($D29,"#"))+1))=TEXT($C29,"d/m/yyyy"),FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>($C29=$D29)*($C29&lt;&gt;"")*($D29&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>($C29&lt;&gt;"not found")*($C29&lt;&gt;"")*($D29&lt;&gt;"")*($C29&lt;&gt;$D29)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>ISNUMBER(DATE(YEAR($C33),MONTH($C33),DAY($C33)))*IFERROR(MID(TEXT($D33,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"))+1,FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"))+1)-FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"))-1)&amp;"/"&amp;LEFT(TEXT($D33,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"))-1)&amp;"/"&amp;RIGHT(TEXT($D33,"#"),LEN(TEXT($D33,"3"))-FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"),FIND(IF(ISNUMBER(FIND("/",TEXT($D33,"#"))),"/","-"),TEXT($D33,"#"))+1))=TEXT($C33,"d/m/yyyy"),FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>($C33=$D33)*($C33&lt;&gt;"")*($D33&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>($C33&lt;&gt;"not found")*($C33&lt;&gt;"")*($D33&lt;&gt;"")*($C33&lt;&gt;$D33)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tools/Apparatus.xlsx
+++ b/Tools/Apparatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\preparatory\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70C0A79-DF2C-4BE6-95B7-D629269C3D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173D70BB-4E5A-49C7-AD87-15079C256B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -851,7 +851,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1485,21 +1485,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="D48" zoomScale="89" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="13" max="13" width="28.21875" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>243</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v xml:space="preserve">243   يوسف عادل حليم </v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>878</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>878   بافلي اديب سمير</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>879</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v xml:space="preserve">879   ميشيل اكرامي حبيب </v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>525</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v xml:space="preserve">525   مارك سامح ابراهيم </v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>830</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>830   فادي بشرى نادي</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>310</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v xml:space="preserve">310   ابانوب عماد جابر </v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>726</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>726   سامح ملاك صابر</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>336</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v xml:space="preserve">336   يوحنا فايز ادوارد </v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>128</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>128   كارلوس شنودة تادرس</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>718</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>718   بيشوي جرجس عيد</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>838</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>838   كيرلس عوني رافت</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>740</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>740   مينا منير امير</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>435</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v xml:space="preserve">435   فادي هاني صموئيل </v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>440</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v xml:space="preserve">440   فيلوباتير عيد اسحق </v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>225</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>113   اوليفر مجدي سمير</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>126</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>129   مارك روماني القمص دوماديوس</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>337</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>133   ميخائيل جرجس محروس</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>231</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v xml:space="preserve">139   انطونيوس باسم وليم </v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L20">
         <v>211</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>211   امير عادل جرجس حنا</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L21">
         <v>254</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>254   بيتر ماهر عزمي</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L22">
         <v>317</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v xml:space="preserve">317   بولا زاخر جرجس </v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L23">
         <v>325</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v xml:space="preserve">325   سمير سامح سمير </v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L24">
         <v>329</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>329   كيرلس جرجس عيسى</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L25">
         <v>334</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v xml:space="preserve">334   ماريو ماجد مهاود </v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L26">
         <v>338</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>338   ميخائيل القس اسحق قسطور</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L27">
         <v>342</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>342   باترك تيسير ادوار</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L28">
         <v>346</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v xml:space="preserve">346   مارتن مجدي جمال </v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>343</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>343   بيتر فرنسيس منير فرنسيس</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L30">
         <v>438</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v xml:space="preserve">438   فيلوباتير عماد كمال </v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L31">
         <v>444</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v xml:space="preserve">444   ماثيو موسي مكاري </v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L32">
         <v>445</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v xml:space="preserve">445   مارتن ماجد شوقي </v>
       </c>
     </row>
-    <row r="33" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L33">
         <v>880</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v xml:space="preserve">880   نوفير اسامة حنا </v>
       </c>
     </row>
-    <row r="34" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L34">
         <v>610</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>610   فادي عماد موسى</v>
       </c>
     </row>
-    <row r="35" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L35">
         <v>611</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>611   رضا صبحي ايوب</v>
       </c>
     </row>
-    <row r="36" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L36">
         <v>612</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>612   كيرلس صبحي ايوب</v>
       </c>
     </row>
-    <row r="37" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L37">
         <v>616</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>616   توماس مرزق يوسف</v>
       </c>
     </row>
-    <row r="38" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L38">
         <v>617</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>617   شنودة مرزق يوسف</v>
       </c>
     </row>
-    <row r="39" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L39">
         <v>710</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v xml:space="preserve">710   ابانوب إيهاب سعد </v>
       </c>
     </row>
-    <row r="40" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L40">
         <v>721</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>721   جاستن مجدي ابراهيم توفيق</v>
       </c>
     </row>
-    <row r="41" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L41">
         <v>722</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v xml:space="preserve">722   جون روماني مسعد </v>
       </c>
     </row>
-    <row r="42" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L42">
         <v>735</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>735   مارك منير كامل</v>
       </c>
     </row>
-    <row r="43" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L43">
         <v>812</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>812   فادي نصر رمزي</v>
       </c>
     </row>
-    <row r="44" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L44">
         <v>817</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>817   بيشوي ايمن عبد الروؤف</v>
       </c>
     </row>
-    <row r="45" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L45">
         <v>856</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v xml:space="preserve">856   مينا مدحت سمير </v>
       </c>
     </row>
-    <row r="46" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L46">
         <v>862</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v xml:space="preserve">862   يوسف بولا جميل </v>
       </c>
     </row>
-    <row r="47" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L47">
         <v>865</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>865   كيرلس هاني فوزي</v>
       </c>
     </row>
-    <row r="48" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L48">
         <v>869</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>869   يوسف نشات رزق الله</v>
       </c>
     </row>
-    <row r="49" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L49">
         <v>882</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v xml:space="preserve">882   فرانك عصام جرجس </v>
       </c>
     </row>
-    <row r="50" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L50">
         <v>883</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>883   جورج نشات جورج</v>
       </c>
     </row>
-    <row r="51" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L51">
         <v>889</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>889   يوسف مسامح يوسف</v>
       </c>
     </row>
-    <row r="52" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L52">
         <v>891</v>
       </c>
@@ -2353,16 +2353,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26564200-F093-4A51-857E-5F071A182D00}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="83" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>18</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>425</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>450</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>436</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>433</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>246</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>247</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>248</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>214</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>245</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>519</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>138</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>120</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>323</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>318</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>742</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>745</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>738</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>717</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>742</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>866</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>874</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>864</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>440</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>435</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>231</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>225</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>243</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <v>231</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>511</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>525</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="38">
         <v>525</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="38">
         <v>128</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>126</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>310</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>337</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>336</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>740</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>726</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>718</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>740</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>879</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>879</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>830</v>
       </c>
@@ -2774,14 +2774,14 @@
       <selection activeCell="A2" sqref="A2:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="1" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>113</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0.5493055555555556</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>129</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>133</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>0.5493055555555556</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>139</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>211</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>254</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>0.40138888888888891</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>317</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>325</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>329</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>334</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>338</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>342</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>346</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>418</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>438</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>444</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>445</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>530</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>610</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>611</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>612</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>616</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>617</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>710</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>721</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>722</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>735</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>812</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>817</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>856</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>862</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>865</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>869</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
         <v>882</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>0.5493055555555556</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>883</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>889</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>891</v>
       </c>
@@ -3427,19 +3427,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3448,7 +3448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -3458,7 +3458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -3468,7 +3468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -3478,7 +3478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
@@ -3502,13 +3502,13 @@
       <selection activeCell="A2" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>120</v>
       </c>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="38">
         <v>126</v>
       </c>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>128</v>
       </c>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>138</v>
       </c>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>139</v>
       </c>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>214</v>
       </c>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>225</v>
       </c>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>231</v>
       </c>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>231</v>
       </c>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>243</v>
       </c>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>245</v>
       </c>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>246</v>
       </c>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>247</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>248</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>310</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>317</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>318</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>323</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>325</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>329</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>336</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>337</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>425</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>433</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>435</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>436</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <v>440</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>444</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>445</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="38">
         <v>445</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>450</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>511</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>519</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>525</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>525</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>616</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>717</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>718</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>721</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>722</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>726</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>735</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>738</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>740</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>740</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>742</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>742</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>745</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>830</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
         <v>856</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <v>856</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <v>864</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>866</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>874</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>879</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="36">
         <v>879</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>883</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>891</v>
       </c>
@@ -4228,38 +4228,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
       <c r="B60" s="16"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="36"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="36"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="36"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="36"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="36"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="36"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="36"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="36"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="36"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="37"/>
     </row>
   </sheetData>
@@ -4279,9 +4279,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>100</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>300</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>400</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>600</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>700</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>800</v>
       </c>
